--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.38148090156801506</v>
+        <v>0.38221848321154955</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32539869079178524</v>
+        <v>0.32602415205646584</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0513342668845259</v>
+        <v>-0.051363707900701529</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0022283601316524888</v>
+        <v>-0.0023199314049117039</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0026320250721989331</v>
+        <v>0.0026846829289998934</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0017888363686307572</v>
+        <v>0.0017865144626340477</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0011046667434025095</v>
+        <v>0.0011051303385501894</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.012505192142664509</v>
+        <v>-0.012547107046802803</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0044600801983809002</v>
+        <v>0.0044600874671482105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31266642646630582</v>
+        <v>0.31343933007233871</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0091181905566537699</v>
+        <v>0.0093380569760121469</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0003671497590183267</v>
+        <v>0.00036644361940457265</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00043417239693035043</v>
+        <v>0.00042525253184455498</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0013072103055064258</v>
+        <v>0.0013053684005520779</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.023682636982164534</v>
+        <v>-0.023742784732011146</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00018124820429567799</v>
+        <v>0.00018045717558565327</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00045759856571941926</v>
+        <v>-0.00045761595551502277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.4161259532901237</v>
+        <v>0.41778867121429536</v>
       </c>
       <c r="C5" s="0">
-        <v>0.14608498290300481</v>
+        <v>0.14854865321703328</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.069510695894171387</v>
+        <v>-0.071048374085263516</v>
       </c>
       <c r="E5" s="0">
-        <v>0.006376458873295545</v>
+        <v>0.0064291216313766136</v>
       </c>
       <c r="F5" s="0">
-        <v>0.038483573085613003</v>
+        <v>0.038385643896161073</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0034843205283920202</v>
+        <v>-0.0034918244950533917</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00019359129150352809</v>
+        <v>-0.00019718102002140152</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.012100665200764082</v>
+        <v>-0.012080462543896421</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0021962151232645111</v>
+        <v>-0.0021962354583796029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.49836213391446604</v>
+        <v>0.49796928183883504</v>
       </c>
       <c r="C6" s="0">
-        <v>0.049221076858319855</v>
+        <v>0.047028238494622177</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0028031848691156616</v>
+        <v>-0.0028029053001516423</v>
       </c>
       <c r="F6" s="0">
-        <v>0.004446251993348126</v>
+        <v>0.0044360494730815601</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0072214194723813777</v>
+        <v>0.0072712698552848537</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0239297016288504</v>
+        <v>0.024027018456648928</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00022091554055825302</v>
+        <v>0.00022093964505381924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.38409156420479307</v>
+        <v>0.38276516507124969</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.085394786502832054</v>
+        <v>0.083761628065952318</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0083516742916346139</v>
+        <v>-0.0083676002692952313</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.23138471261953669</v>
+        <v>-0.23064411216691255</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0011113233656596523</v>
+        <v>0.0011100858778281828</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0092580664652025732</v>
+        <v>0.0092342290695890377</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.029701640867804024</v>
+        <v>0.02970165265525293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.051918811235758699</v>
+        <v>-0.051521513039731959</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.43434089908634727</v>
+        <v>-0.4327120159910155</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00072849950853968971</v>
+        <v>0.00072875979331528938</v>
       </c>
       <c r="F8" s="0">
-        <v>0.01547715996309991</v>
+        <v>0.015484888633800674</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00028353878233213973</v>
+        <v>-0.00028229230279267192</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.016786895185082109</v>
+        <v>-0.016701385632888577</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0008047018584299015</v>
+        <v>-0.00080463261140079068</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.076455776287513877</v>
+        <v>-0.076412523990948</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.087246835691943955</v>
+        <v>-0.087253174117222485</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0024548406822215343</v>
+        <v>-0.0024345807838146226</v>
       </c>
       <c r="F9" s="0">
-        <v>0.071610858607985772</v>
+        <v>0.071236147053409068</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0056941877009620036</v>
+        <v>-0.0057188426964925026</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00019541418414082827</v>
+        <v>0.00019360377175146762</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00068281653519036863</v>
+        <v>-0.00064960230959454194</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0002645572335639168</v>
+        <v>-0.00026456186925243041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.17410769563257389</v>
+        <v>0.18058404175502063</v>
       </c>
       <c r="C10" s="0">
-        <v>0.29723826284298127</v>
+        <v>0.30381285795704704</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>9.5834344629071345e-06</v>
+        <v>9.589721301508013e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0013835134150148617</v>
+        <v>-0.0013851645435718708</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.00026562518583461443</v>
+        <v>0.00026532940479782852</v>
       </c>
       <c r="I10" s="0">
-        <v>0.018820161910592458</v>
+        <v>0.018600214261209211</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.073546566473526573</v>
+        <v>-0.073466230002937782</v>
       </c>
       <c r="K10" s="0">
-        <v>0.009159918434757941</v>
+        <v>0.009159968948122682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.52517450882710792</v>
+        <v>0.53170917903996173</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.25822126961555247</v>
+        <v>0.25826017480032265</v>
       </c>
       <c r="E11" s="0">
-        <v>0.018556505033671972</v>
+        <v>0.018540059432941663</v>
       </c>
       <c r="F11" s="0">
-        <v>0.082723320683071103</v>
+        <v>0.082805302957777466</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0080880208301948985</v>
+        <v>-0.0081213769145266346</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0023409104300024302</v>
+        <v>-0.0023361497597841523</v>
       </c>
       <c r="I11" s="0">
-        <v>0.027647566081929472</v>
+        <v>0.027630021253978551</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.025652916959493677</v>
+        <v>-0.025652894485768463</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.30955459402749685</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.1418878623126936</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00025774025816387191</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00019365803327090083</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00025707184256496283</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.03523156852639539</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.044842164555703889</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,12 +388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.64453125" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.38221848321154955</v>
+        <v>0.38259114186571963</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32602415205646584</v>
+        <v>0.3258072910797305</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.051363707900701529</v>
+        <v>-0.05190020848395055</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0023199314049117039</v>
+        <v>-0.002271174630449283</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0026846829289998934</v>
+        <v>0.002655051451975849</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0017865144626340477</v>
+        <v>0.0017824597301487359</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0011051303385501894</v>
+        <v>0.001103206406947278</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.012547107046802803</v>
+        <v>-0.012613281609533978</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0044600874671482105</v>
+        <v>0.0044600963488727885</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31343933007233871</v>
+        <v>0.31549318828720935</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0093380569760121469</v>
+        <v>0.011657870019338908</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00036644361940457265</v>
+        <v>0.00036641393422982686</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00042525253184455498</v>
+        <v>0.00042235384391565333</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0013053684005520779</v>
+        <v>0.0012971581670503849</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.023742784732011146</v>
+        <v>-0.023780146546270711</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00018045717558565327</v>
+        <v>0.00017993184836927699</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00045761595551502277</v>
+        <v>-0.00045768405915447286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.41778867121429536</v>
+        <v>0.4157878428574891</v>
       </c>
       <c r="C5" s="0">
-        <v>0.14854865321703328</v>
+        <v>0.1444300904598248</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.071048374085263516</v>
+        <v>-0.069655291484021442</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0064291216313766136</v>
+        <v>0.0063854707850442578</v>
       </c>
       <c r="F5" s="0">
-        <v>0.038385643896161073</v>
+        <v>0.037055587186263866</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0034918244950533917</v>
+        <v>-0.0035020875302015178</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00019718102002140152</v>
+        <v>-0.00018996692070058472</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.012080462543896421</v>
+        <v>-0.012032983574616017</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0021962354583796029</v>
+        <v>-0.0021961643513135898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.49796928183883504</v>
+        <v>0.50107982439995968</v>
       </c>
       <c r="C6" s="0">
-        <v>0.047028238494622177</v>
+        <v>0.052089675045171625</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0028029053001516423</v>
+        <v>-0.0028031297771395841</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0044360494730815601</v>
+        <v>0.0044074996264381154</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0072712698552848537</v>
+        <v>0.0072885957683570994</v>
       </c>
       <c r="I6" s="0">
-        <v>0.024027018456648928</v>
+        <v>0.02408849871204579</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00022093964505381924</v>
+        <v>0.00022084216759754582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.38276516507124969</v>
+        <v>0.38625665654307939</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.083761628065952318</v>
+        <v>0.082329755387714129</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0083676002692952313</v>
+        <v>-0.008364553135970192</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.23064411216691255</v>
+        <v>-0.22877984089989734</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0011100858778281828</v>
+        <v>0.0011139091489297944</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0092342290695890377</v>
+        <v>0.00917594832477313</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.02970165265525293</v>
+        <v>0.029701613317570152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.051521513039731959</v>
+        <v>-0.058912411106731122</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.4327120159910155</v>
+        <v>-0.44372590452239946</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00072875979331528938</v>
+        <v>0.00072925824337259474</v>
       </c>
       <c r="F8" s="0">
-        <v>0.015484888633800674</v>
+        <v>0.015507958559021612</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00028229230279267192</v>
+        <v>-0.0002815179034430193</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.016701385632888577</v>
+        <v>-0.016594221379083819</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00080463261140079068</v>
+        <v>-0.00080464064727842066</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.076412523990948</v>
+        <v>-0.083885656965818789</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.087253174117222485</v>
+        <v>-0.0870238890875841</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0024345807838146226</v>
+        <v>-0.0024293343773927616</v>
       </c>
       <c r="F9" s="0">
-        <v>0.071236147053409068</v>
+        <v>0.070880772641251616</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0057188426964925026</v>
+        <v>-0.00569218991106371</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00019360377175146762</v>
+        <v>0.00019815672452322636</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00064960230959454194</v>
+        <v>-0.00064220361230249131</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00026456186925243041</v>
+        <v>-0.00026455823651944099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.18058404175502063</v>
+        <v>0.17322963932754232</v>
       </c>
       <c r="C10" s="0">
-        <v>0.30381285795704704</v>
+        <v>0.30300839822328646</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>9.589721301508013e-06</v>
+        <v>9.759504455561073e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0013851645435718708</v>
+        <v>-0.0014101976880288229</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.00026532940479782852</v>
+        <v>0.00026524873683669544</v>
       </c>
       <c r="I10" s="0">
-        <v>0.018600214261209211</v>
+        <v>0.018787140804745504</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.073466230002937782</v>
+        <v>-0.072704953252253818</v>
       </c>
       <c r="K10" s="0">
-        <v>0.009159968948122682</v>
+        <v>0.00915989996431954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.53170917903996173</v>
+        <v>0.52755605905271008</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.25826017480032265</v>
+        <v>0.26049211837906028</v>
       </c>
       <c r="E11" s="0">
-        <v>0.018540059432941663</v>
+        <v>0.018655348141560602</v>
       </c>
       <c r="F11" s="0">
-        <v>0.082805302957777466</v>
+        <v>0.083126575682992157</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0081213769145266346</v>
+        <v>-0.0080438662224155653</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0023361497597841523</v>
+        <v>-0.0023167543684879037</v>
       </c>
       <c r="I11" s="0">
-        <v>0.027630021253978551</v>
+        <v>0.028065918370166597</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.025652894485768463</v>
+        <v>-0.025652920257708378</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.30955459402749685</v>
+        <v>0.25940849244617636</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.1418878623126936</v>
+        <v>-0.18331175698738028</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00025774025816387191</v>
+        <v>0.00030636611183067609</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00019365803327090083</v>
+        <v>-0.0099564650780768586</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00025707184256496283</v>
+        <v>-0.010861608790320181</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.03523156852639539</v>
+        <v>-0.019433203896765495</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.044842164555703889</v>
+        <v>-0.044890897965821575</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.29397513321067892</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.27124486473564929</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.034676233229061083</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.0822023362452943</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0013542899471181622</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00019019955596013237</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0049886720823870394</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.25484121990460984</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.21255042190650522</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.032720803085534336</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0008298302651442188</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.001161295455870805</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00063542532428446507</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.047287438542322355</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-6.076927958642564e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,14 +463,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.38259114186571963</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.3258072910797305</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.31549318828720935</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.4157878428574891</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.50107982439995968</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.38625665654307939</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>-0.058912411106731122</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.083885656965818789</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.17322963932754232</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.52755605905271008</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.25940849244617636</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.29397513321067892</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.21255042190650522</v>
+        <v>0.22224397154325626</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.032720803085534336</v>
+        <v>-0.018940887489666818</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0008298302651442188</v>
+        <v>-0.00086559166377343701</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.001161295455870805</v>
+        <v>0.00073195723396738701</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00063542532428446507</v>
+        <v>-0.0055033880390805657</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.047287438542322355</v>
+        <v>-0.034666188341912631</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-6.076927958642564e-05</v>
+        <v>-0.012487063366956597</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.32870192840022466</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.46231099867931563</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0081344105568225862</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0060160148967259826</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0076729080632935535</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.098426204987555443</v>
       </c>
     </row>
   </sheetData>
